--- a/ProductsData.xlsx
+++ b/ProductsData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A6364E-A292-476B-9086-55EE1CC00439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD119D-CF70-4925-BC62-B4B160370AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,16 +29,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
-    <t>BLACK</t>
-  </si>
-  <si>
     <t>G500</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,16 +452,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
